--- a/results1.xlsx
+++ b/results1.xlsx
@@ -1,37 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="360" yWindow="600" windowWidth="19815" windowHeight="7365"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Размер одной матрицы</t>
+  </si>
+  <si>
+    <t>Время выполнения</t>
+  </si>
+  <si>
+    <t>Общее время выполнения</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,94 +60,206 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Время выполнения</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.109379768371582</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15624046325683602</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.46873331069946289</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0000967979431152</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>98.673303604125962</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>850.89747667312622</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16052.422945261005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="64553344"/>
+        <c:axId val="64554880"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="64553344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="64554880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="64554880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="64553344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -420,109 +546,137 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Размер одной матрицы</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Время выполнения</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>100</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="C2">
+        <v>0.109379768371582</v>
+      </c>
+      <c r="D2">
+        <v>0.109379768371582</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>200</v>
       </c>
-      <c r="C3" t="n">
-        <v>0.002000808715820312</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="C3">
+        <v>0.26562023162841802</v>
+      </c>
+      <c r="D3">
+        <f>C3-(SUM(C$2:C2))</f>
+        <v>0.15624046325683602</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>400</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.004002094268798828</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="C4">
+        <v>0.84373331069946289</v>
+      </c>
+      <c r="D4">
+        <f>C4-(SUM(C$2:C3))</f>
+        <v>0.46873331069946289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>1000</v>
       </c>
-      <c r="C5" t="n">
-        <v>0.008005380630493164</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="C5">
+        <v>6.2188301086425781</v>
+      </c>
+      <c r="D5">
+        <f>C5-(SUM(C$2:C4))</f>
+        <v>5.0000967979431152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>2000</v>
       </c>
-      <c r="C6" t="n">
-        <v>0.01400899887084961</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="C6">
+        <v>106.110867023468</v>
+      </c>
+      <c r="D6">
+        <f>C6-(SUM(C$2:C5))</f>
+        <v>98.673303604125962</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>4000</v>
       </c>
-      <c r="C7" t="n">
-        <v>0.02701807022094727</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="C7">
+        <v>964.44590711593628</v>
+      </c>
+      <c r="D7">
+        <f>C7-(SUM(C$2:C6))</f>
+        <v>850.89747667312622</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>10000</v>
       </c>
-      <c r="C8" t="n">
-        <v>0.05804014205932617</v>
+      <c r="C8">
+        <v>17130.417282819752</v>
+      </c>
+      <c r="D8">
+        <f>C8-(SUM(C2:C7))</f>
+        <v>16052.422945261005</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>